--- a/Results/ember2018 - mac/analysis_plots/comparison results.xlsx
+++ b/Results/ember2018 - mac/analysis_plots/comparison results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielerusso/Documents/GitHub/Cybersecurity_Project/Results/ember2018 - mac/analysis_plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBFA87F4-54CC-404D-B7CF-0C3AD59FF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884B2597-CD7F-DB44-BD80-2BC55B97B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{533EED6B-4744-8741-97A2-793B71DDF7A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mac" sheetId="1" r:id="rId1"/>
+    <sheet name="Cluster" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>poison_rate</t>
   </si>
@@ -957,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98A8B3D-E95D-514E-ADEB-99A46249108E}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2149,4 +2150,986 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34644A51-B611-3F4C-95C8-0323CD01E835}">
+  <dimension ref="A1:AD10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.625</v>
+      </c>
+      <c r="J2">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="K2">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="L2">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="N2">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="O2" s="57">
+        <f>G2-E2</f>
+        <v>-0.11270000000000002</v>
+      </c>
+      <c r="P2" s="13">
+        <f t="shared" ref="P2:P9" si="0">O2/E2</f>
+        <v>-0.1802623160588612</v>
+      </c>
+      <c r="Q2" s="16">
+        <f t="shared" ref="Q2:Q9" si="1">H2-F2</f>
+        <v>-0.1573</v>
+      </c>
+      <c r="R2" s="58">
+        <f t="shared" ref="R2:R9" si="2">Q2/F2</f>
+        <v>-0.2192334494773519</v>
+      </c>
+      <c r="S2" s="63">
+        <f t="shared" ref="S2:S9" si="3">I2-G2</f>
+        <v>0.11250000000000004</v>
+      </c>
+      <c r="T2" s="12">
+        <f t="shared" ref="T2:T9" si="4">S2/G2</f>
+        <v>0.21951219512195133</v>
+      </c>
+      <c r="U2" s="15">
+        <f t="shared" ref="U2:U9" si="5">J2-H2</f>
+        <v>0.16199999999999992</v>
+      </c>
+      <c r="V2" s="64">
+        <f t="shared" ref="V2:V9" si="6">U2/H2</f>
+        <v>0.28918243484469819</v>
+      </c>
+      <c r="W2" s="72">
+        <f t="shared" ref="W2:W9" si="7">K2-G2</f>
+        <v>3.0000000000007798E-4</v>
+      </c>
+      <c r="X2" s="11">
+        <f t="shared" ref="X2:X9" si="8">W2/G2</f>
+        <v>5.8536585365868879E-4</v>
+      </c>
+      <c r="Y2" s="14">
+        <f t="shared" ref="Y2:Y9" si="9">L2-H2</f>
+        <v>-0.46630000000000005</v>
+      </c>
+      <c r="Z2" s="73">
+        <f t="shared" ref="Z2:Z9" si="10">Y2/H2</f>
+        <v>-0.83238129239557301</v>
+      </c>
+      <c r="AA2" s="69">
+        <f t="shared" ref="AA2:AA9" si="11">M2-G2</f>
+        <v>-2.2299999999999931E-2</v>
+      </c>
+      <c r="AB2" s="10">
+        <f t="shared" ref="AB2:AB9" si="12">AA2/G2</f>
+        <v>-4.3512195121951092E-2</v>
+      </c>
+      <c r="AC2" s="9">
+        <f t="shared" ref="AC2:AC9" si="13">N2-H2</f>
+        <v>-0.55249999999999999</v>
+      </c>
+      <c r="AD2" s="34">
+        <f t="shared" ref="AD2:AD9" si="14">AC2/H2</f>
+        <v>-0.98625490896108525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="H3">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.72130000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="L3">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="N3">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="O3" s="57">
+        <f t="shared" ref="O2:O9" si="15">G3-E3</f>
+        <v>-9.2199999999999949E-2</v>
+      </c>
+      <c r="P3" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.13024438480011294</v>
+      </c>
+      <c r="Q3" s="16">
+        <f t="shared" si="1"/>
+        <v>-5.9400000000000008E-2</v>
+      </c>
+      <c r="R3" s="58">
+        <f t="shared" si="2"/>
+        <v>-7.8821656050955424E-2</v>
+      </c>
+      <c r="S3" s="63">
+        <f t="shared" si="3"/>
+        <v>0.10560000000000003</v>
+      </c>
+      <c r="T3" s="12">
+        <f t="shared" si="4"/>
+        <v>0.17151210004872505</v>
+      </c>
+      <c r="U3" s="15">
+        <f t="shared" si="5"/>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="V3" s="64">
+        <f t="shared" si="6"/>
+        <v>0.10659752232785934</v>
+      </c>
+      <c r="W3" s="72">
+        <f t="shared" si="7"/>
+        <v>-1.9999999999997797E-4</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="8"/>
+        <v>-3.2483352281951919E-4</v>
+      </c>
+      <c r="Y3" s="14">
+        <f t="shared" si="9"/>
+        <v>-0.26670000000000005</v>
+      </c>
+      <c r="Z3" s="73">
+        <f t="shared" si="10"/>
+        <v>-0.38418323249783931</v>
+      </c>
+      <c r="AA3" s="69">
+        <f t="shared" si="11"/>
+        <v>-0.11080000000000001</v>
+      </c>
+      <c r="AB3" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.17995777164203347</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.62340000000000007</v>
+      </c>
+      <c r="AD3" s="34">
+        <f t="shared" si="14"/>
+        <v>-0.89801210025929135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.42120000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="N4">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="O4" s="57">
+        <f t="shared" si="15"/>
+        <v>-0.12639999999999996</v>
+      </c>
+      <c r="P4" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.16939158402573032</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" si="1"/>
+        <v>-2.6900000000000035E-2</v>
+      </c>
+      <c r="R4" s="58">
+        <f t="shared" si="2"/>
+        <v>-3.4840046626084746E-2</v>
+      </c>
+      <c r="S4" s="63">
+        <f t="shared" si="3"/>
+        <v>7.6999999999999957E-2</v>
+      </c>
+      <c r="T4" s="12">
+        <f t="shared" si="4"/>
+        <v>0.12423362374959657</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1099999999999999E-2</v>
+      </c>
+      <c r="V4" s="64">
+        <f t="shared" si="6"/>
+        <v>1.4895330112721416E-2</v>
+      </c>
+      <c r="W4" s="72">
+        <f t="shared" si="7"/>
+        <v>3.9999999999995595E-4</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="8"/>
+        <v>6.4536947402380753E-4</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" si="9"/>
+        <v>-0.32399999999999995</v>
+      </c>
+      <c r="Z4" s="73">
+        <f t="shared" si="10"/>
+        <v>-0.43478260869565211</v>
+      </c>
+      <c r="AA4" s="69">
+        <f t="shared" si="11"/>
+        <v>-0.12090000000000001</v>
+      </c>
+      <c r="AB4" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.19506292352371735</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.69629999999999992</v>
+      </c>
+      <c r="AD4" s="34">
+        <f t="shared" si="14"/>
+        <v>-0.93438003220611909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="B5" s="36">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36">
+        <v>128</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.7288</v>
+      </c>
+      <c r="J5">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.5292</v>
+      </c>
+      <c r="L5">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="N5">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="O5" s="59">
+        <f t="shared" si="15"/>
+        <v>-0.17000000000000004</v>
+      </c>
+      <c r="P5" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.24341351660939295</v>
+      </c>
+      <c r="Q5" s="43">
+        <f t="shared" si="1"/>
+        <v>-2.0100000000000007E-2</v>
+      </c>
+      <c r="R5" s="60">
+        <f t="shared" si="2"/>
+        <v>-2.6969005769488807E-2</v>
+      </c>
+      <c r="S5" s="65">
+        <f t="shared" si="3"/>
+        <v>0.20040000000000002</v>
+      </c>
+      <c r="T5" s="45">
+        <f t="shared" si="4"/>
+        <v>0.37925813777441336</v>
+      </c>
+      <c r="U5" s="44">
+        <f t="shared" si="5"/>
+        <v>1.9600000000000062E-2</v>
+      </c>
+      <c r="V5" s="66">
+        <f t="shared" si="6"/>
+        <v>2.7027027027027115E-2</v>
+      </c>
+      <c r="W5" s="74">
+        <f t="shared" si="7"/>
+        <v>8.0000000000002292E-4</v>
+      </c>
+      <c r="X5" s="47">
+        <f t="shared" si="8"/>
+        <v>1.5140045420136694E-3</v>
+      </c>
+      <c r="Y5" s="46">
+        <f t="shared" si="9"/>
+        <v>-0.54869999999999997</v>
+      </c>
+      <c r="Z5" s="75">
+        <f t="shared" si="10"/>
+        <v>-0.75661886376172094</v>
+      </c>
+      <c r="AA5" s="70">
+        <f t="shared" si="11"/>
+        <v>-2.5100000000000011E-2</v>
+      </c>
+      <c r="AB5" s="49">
+        <f t="shared" si="12"/>
+        <v>-4.7501892505677538E-2</v>
+      </c>
+      <c r="AC5" s="48">
+        <f t="shared" si="13"/>
+        <v>-0.65439999999999998</v>
+      </c>
+      <c r="AD5" s="50">
+        <f t="shared" si="14"/>
+        <v>-0.90237175951461668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.7712</v>
+      </c>
+      <c r="I6">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.71540000000000004</v>
+      </c>
+      <c r="K6">
+        <v>0.69979999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="N6">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="O6" s="57">
+        <f t="shared" si="15"/>
+        <v>4.3999999999999595E-3</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" si="0"/>
+        <v>6.3118634342274552E-3</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="1"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="R6" s="58">
+        <f t="shared" si="2"/>
+        <v>2.9364655632674881E-2</v>
+      </c>
+      <c r="S6" s="63">
+        <f t="shared" si="3"/>
+        <v>-7.2599999999999998E-2</v>
+      </c>
+      <c r="T6" s="12">
+        <f t="shared" si="4"/>
+        <v>-0.10349251603706343</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="5"/>
+        <v>-5.5799999999999961E-2</v>
+      </c>
+      <c r="V6" s="64">
+        <f t="shared" si="6"/>
+        <v>-7.2354771784232316E-2</v>
+      </c>
+      <c r="W6" s="72">
+        <f t="shared" si="7"/>
+        <v>-1.7000000000000348E-3</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="8"/>
+        <v>-2.4233784746971274E-3</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="9"/>
+        <v>-0.13129999999999997</v>
+      </c>
+      <c r="Z6" s="73">
+        <f t="shared" si="10"/>
+        <v>-0.17025414937759334</v>
+      </c>
+      <c r="AA6" s="69">
+        <f t="shared" si="11"/>
+        <v>-0.20219999999999999</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.28823948681397005</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.68969999999999998</v>
+      </c>
+      <c r="AD6" s="34">
+        <f t="shared" si="14"/>
+        <v>-0.89432053941908707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.621</v>
+      </c>
+      <c r="J7">
+        <v>0.7137</v>
+      </c>
+      <c r="K7">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="M7">
+        <v>0.5101</v>
+      </c>
+      <c r="N7">
+        <v>0.1013</v>
+      </c>
+      <c r="O7" s="57">
+        <f t="shared" si="15"/>
+        <v>2.3399999999999976E-2</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="0"/>
+        <v>3.8266557645134876E-2</v>
+      </c>
+      <c r="Q7" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0600000000000063E-2</v>
+      </c>
+      <c r="R7" s="58">
+        <f t="shared" si="2"/>
+        <v>2.8811188811188899E-2</v>
+      </c>
+      <c r="S7" s="63">
+        <f t="shared" si="3"/>
+        <v>-1.3900000000000023E-2</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="4"/>
+        <v>-2.1893211529374741E-2</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="5"/>
+        <v>-2.1900000000000031E-2</v>
+      </c>
+      <c r="V7" s="64">
+        <f t="shared" si="6"/>
+        <v>-2.9771615008156647E-2</v>
+      </c>
+      <c r="W7" s="72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="9"/>
+        <v>-0.26410000000000006</v>
+      </c>
+      <c r="Z7" s="73">
+        <f t="shared" si="10"/>
+        <v>-0.35902664491571512</v>
+      </c>
+      <c r="AA7" s="69">
+        <f t="shared" si="11"/>
+        <v>-0.12480000000000002</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.19656638840762328</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.63430000000000009</v>
+      </c>
+      <c r="AD7" s="34">
+        <f t="shared" si="14"/>
+        <v>-0.86228928765633506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.7137</v>
+      </c>
+      <c r="H8">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="J8">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="L8">
+        <v>0.68</v>
+      </c>
+      <c r="M8">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="N8">
+        <v>0.1139</v>
+      </c>
+      <c r="O8" s="57">
+        <f t="shared" si="15"/>
+        <v>8.5799999999999987E-2</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13664596273291924</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="1"/>
+        <v>4.1800000000000059E-2</v>
+      </c>
+      <c r="R8" s="58">
+        <f t="shared" si="2"/>
+        <v>5.8047493403694014E-2</v>
+      </c>
+      <c r="S8" s="63">
+        <f t="shared" si="3"/>
+        <v>-4.4900000000000051E-2</v>
+      </c>
+      <c r="T8" s="12">
+        <f t="shared" si="4"/>
+        <v>-6.2911587501751506E-2</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="5"/>
+        <v>-2.7900000000000036E-2</v>
+      </c>
+      <c r="V8" s="64">
+        <f t="shared" si="6"/>
+        <v>-3.6618978868617973E-2</v>
+      </c>
+      <c r="W8" s="72">
+        <f t="shared" si="7"/>
+        <v>-3.9999999999995595E-4</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="8"/>
+        <v>-5.6045957685295778E-4</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="9"/>
+        <v>-8.1899999999999973E-2</v>
+      </c>
+      <c r="Z8" s="73">
+        <f t="shared" si="10"/>
+        <v>-0.10749442184013647</v>
+      </c>
+      <c r="AA8" s="69">
+        <f t="shared" si="11"/>
+        <v>-0.20299999999999996</v>
+      </c>
+      <c r="AB8" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.28443323525290731</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="13"/>
+        <v>-0.64800000000000002</v>
+      </c>
+      <c r="AD8" s="34">
+        <f t="shared" si="14"/>
+        <v>-0.85050531565822285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="B9" s="36">
+        <v>3</v>
+      </c>
+      <c r="C9" s="36">
+        <v>128</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.6119</v>
+      </c>
+      <c r="H9">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.5101</v>
+      </c>
+      <c r="N9">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="O9" s="59">
+        <f t="shared" si="15"/>
+        <v>-8.0400000000000027E-2</v>
+      </c>
+      <c r="P9" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.11613462371804134</v>
+      </c>
+      <c r="Q9" s="43">
+        <f t="shared" si="1"/>
+        <v>4.4099999999999917E-2</v>
+      </c>
+      <c r="R9" s="60">
+        <f t="shared" si="2"/>
+        <v>6.0962123306607566E-2</v>
+      </c>
+      <c r="S9" s="65">
+        <f t="shared" si="3"/>
+        <v>0.11450000000000005</v>
+      </c>
+      <c r="T9" s="45">
+        <f t="shared" si="4"/>
+        <v>0.18712207877104109</v>
+      </c>
+      <c r="U9" s="44">
+        <f t="shared" si="5"/>
+        <v>5.9000000000000163E-3</v>
+      </c>
+      <c r="V9" s="66">
+        <f t="shared" si="6"/>
+        <v>7.6872964169381322E-3</v>
+      </c>
+      <c r="W9" s="74">
+        <f t="shared" si="7"/>
+        <v>-3.4999999999999476E-3</v>
+      </c>
+      <c r="X9" s="47">
+        <f t="shared" si="8"/>
+        <v>-5.7198888707304255E-3</v>
+      </c>
+      <c r="Y9" s="46">
+        <f t="shared" si="9"/>
+        <v>-0.38839999999999997</v>
+      </c>
+      <c r="Z9" s="75">
+        <f t="shared" si="10"/>
+        <v>-0.5060586319218241</v>
+      </c>
+      <c r="AA9" s="70">
+        <f t="shared" si="11"/>
+        <v>-0.1018</v>
+      </c>
+      <c r="AB9" s="49">
+        <f t="shared" si="12"/>
+        <v>-0.16636705344010461</v>
+      </c>
+      <c r="AC9" s="48">
+        <f t="shared" si="13"/>
+        <v>-0.67569999999999997</v>
+      </c>
+      <c r="AD9" s="50">
+        <f t="shared" si="14"/>
+        <v>-0.88039087947882733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>